--- a/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-ANS-033.xlsx
+++ b/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-ANS-033.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>387.930000</t>
+          <t>1056.330000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -518,13 +518,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Molar Soryal</t>
+          <t>Daniel Murangira</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>69.470000</t>
+          <t>122.220000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>208.41</t>
+          <t>488.88</t>
         </is>
       </c>
     </row>
@@ -552,13 +552,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stephanie Alexis</t>
+          <t>Molar Soryal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,12 +568,46 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>69.470000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>208.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Stephanie Alexis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>89.760000</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>179.52</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>359.04</t>
         </is>
       </c>
     </row>
